--- a/data/respirometry_resp2.xlsx
+++ b/data/respirometry_resp2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlz554/Experiment_rep2/Respirometry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DC6CC1-E6BA-5F49-B7F7-4A690C01E51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D03BE04-A154-5D40-86DF-F37809F7C215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="560" windowWidth="24500" windowHeight="16440" xr2:uid="{42634453-5150-0D49-B1A9-E811823F8329}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="82">
   <si>
     <t>individual</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>normalized_o2</t>
-  </si>
-  <si>
-    <t>7.79727E-05</t>
   </si>
   <si>
     <t>3.27332E-05</t>
@@ -660,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C039F4EC-DBE7-5E49-933E-700424D1425D}">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:D85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -698,13 +695,13 @@
         <v>66</v>
       </c>
       <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>78</v>
-      </c>
-      <c r="K1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -718,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -754,7 +751,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -775,7 +772,7 @@
         <v>0.90200000000000002</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">I3/F3</f>
+        <f t="shared" ref="K3:K65" si="0">I3/F3</f>
         <v>3.6956521739130437E-4</v>
       </c>
     </row>
@@ -790,7 +787,7 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -826,7 +823,7 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -862,7 +859,7 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -898,7 +895,7 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -934,7 +931,7 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -970,7 +967,7 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1006,7 +1003,7 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1042,7 +1039,7 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1078,7 +1075,7 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1114,7 +1111,7 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,7 +1147,7 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1186,7 +1183,7 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1222,7 +1219,7 @@
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1258,7 +1255,7 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1294,7 +1291,7 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1330,7 +1327,7 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1366,7 +1363,7 @@
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1402,7 +1399,7 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1438,7 +1435,7 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1474,7 +1471,7 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1500,638 +1497,637 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>5.13</v>
+        <v>5.81</v>
       </c>
       <c r="G24">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>67</v>
+        <v>1.5E-3</v>
+      </c>
+      <c r="H24">
+        <v>2.5817599999999999E-4</v>
       </c>
       <c r="I24">
-        <v>1.1199999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="J24">
-        <v>0.88200000000000001</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>2.1832358674463937E-4</v>
+        <v>2.0654044750430291E-4</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>5.81</v>
+        <v>4.95</v>
       </c>
       <c r="G25">
-        <v>1.5E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="H25">
-        <v>2.5817599999999999E-4</v>
+        <v>1.8181800000000001E-4</v>
       </c>
       <c r="I25">
-        <v>1.1999999999999999E-3</v>
+        <v>9.0499999999999999E-4</v>
       </c>
       <c r="J25">
-        <v>0.85299999999999998</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>2.0654044750430291E-4</v>
+        <v>1.8282828282828283E-4</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>4.95</v>
+        <v>5.98</v>
       </c>
       <c r="G26">
-        <v>8.9999999999999998E-4</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H26">
-        <v>1.8181800000000001E-4</v>
+        <v>1.8394599999999999E-4</v>
       </c>
       <c r="I26">
-        <v>9.0499999999999999E-4</v>
+        <v>1.1800000000000001E-3</v>
       </c>
       <c r="J26">
-        <v>0.93700000000000006</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>1.8282828282828283E-4</v>
+        <v>1.9732441471571907E-4</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>5.98</v>
+        <v>5.91</v>
       </c>
       <c r="G27">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H27">
-        <v>1.8394599999999999E-4</v>
+        <v>1.8612500000000001E-4</v>
       </c>
       <c r="I27">
-        <v>1.1800000000000001E-3</v>
+        <v>5.1400000000000003E-4</v>
       </c>
       <c r="J27">
-        <v>0.95799999999999996</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>1.9732441471571907E-4</v>
+        <v>8.6971235194585451E-5</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>5.91</v>
+        <v>5.07</v>
       </c>
       <c r="G28">
-        <v>1.1000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="H28">
-        <v>1.8612500000000001E-4</v>
+        <v>3.5502999999999999E-4</v>
       </c>
       <c r="I28">
-        <v>5.1400000000000003E-4</v>
+        <v>2.2699999999999999E-3</v>
       </c>
       <c r="J28">
-        <v>0.70699999999999996</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>8.6971235194585451E-5</v>
+        <v>4.4773175542406308E-4</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>5.07</v>
+        <v>6.11</v>
       </c>
       <c r="G29">
-        <v>1.8E-3</v>
-      </c>
-      <c r="H29">
-        <v>3.5502999999999999E-4</v>
-      </c>
-      <c r="I29">
-        <v>2.2699999999999999E-3</v>
-      </c>
-      <c r="J29">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>4.4773175542406308E-4</v>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>6.11</v>
+        <v>3.92</v>
       </c>
       <c r="G30">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I30" t="s">
-        <v>65</v>
-      </c>
-      <c r="J30" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30" t="s">
-        <v>65</v>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H30">
+        <v>2.2959200000000001E-4</v>
+      </c>
+      <c r="I30">
+        <v>7.3899999999999997E-4</v>
+      </c>
+      <c r="J30">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>1.885204081632653E-4</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>3.92</v>
+        <v>5.18</v>
       </c>
       <c r="G31">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="H31">
-        <v>2.2959200000000001E-4</v>
-      </c>
-      <c r="I31">
-        <v>7.3899999999999997E-4</v>
-      </c>
-      <c r="J31">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="0"/>
-        <v>1.885204081632653E-4</v>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>5.18</v>
+        <v>4.93</v>
       </c>
       <c r="G32">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I32" t="s">
-        <v>65</v>
-      </c>
-      <c r="J32" t="s">
-        <v>65</v>
-      </c>
-      <c r="K32" t="s">
-        <v>65</v>
+        <v>1.4E-3</v>
+      </c>
+      <c r="H32">
+        <v>2.8397600000000002E-4</v>
+      </c>
+      <c r="I32">
+        <v>1.32E-3</v>
+      </c>
+      <c r="J32">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>2.6774847870182557E-4</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>4.93</v>
+        <v>5.32</v>
       </c>
       <c r="G33">
-        <v>1.4E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="H33">
-        <v>2.8397600000000002E-4</v>
+        <v>3.9473699999999999E-4</v>
       </c>
       <c r="I33">
-        <v>1.32E-3</v>
+        <v>3.0899999999999999E-3</v>
       </c>
       <c r="J33">
-        <v>0.93700000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>2.6774847870182557E-4</v>
+        <v>5.8082706766917291E-4</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>5.32</v>
+        <v>5.45</v>
       </c>
       <c r="G34">
-        <v>2.0999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="H34">
-        <v>3.9473699999999999E-4</v>
+        <v>2.7522899999999999E-4</v>
       </c>
       <c r="I34">
-        <v>3.0899999999999999E-3</v>
+        <v>1.5900000000000001E-3</v>
       </c>
       <c r="J34">
-        <v>0.92400000000000004</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>5.8082706766917291E-4</v>
+        <v>2.9174311926605506E-4</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>5.45</v>
+        <v>2.78</v>
       </c>
       <c r="G35">
-        <v>1.5E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="H35">
-        <v>2.7522899999999999E-4</v>
+        <v>3.23741E-4</v>
       </c>
       <c r="I35">
-        <v>1.5900000000000001E-3</v>
+        <v>7.8200000000000003E-4</v>
       </c>
       <c r="J35">
-        <v>0.96399999999999997</v>
+        <v>0.93</v>
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>2.9174311926605506E-4</v>
+        <v>2.8129496402877702E-4</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>2.78</v>
+        <v>3.74</v>
       </c>
       <c r="G36">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="H36">
-        <v>3.23741E-4</v>
+        <v>2.40642E-4</v>
       </c>
       <c r="I36">
-        <v>7.8200000000000003E-4</v>
+        <v>6.1399999999999996E-4</v>
       </c>
       <c r="J36">
-        <v>0.93</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>2.8129496402877702E-4</v>
+        <v>1.641711229946524E-4</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>3.74</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="G37">
-        <v>8.9999999999999998E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="H37">
-        <v>2.40642E-4</v>
+        <v>4.1152300000000001E-4</v>
       </c>
       <c r="I37">
-        <v>6.1399999999999996E-4</v>
+        <v>2.0600000000000002E-3</v>
       </c>
       <c r="J37">
-        <v>0.90200000000000002</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>1.641711229946524E-4</v>
+        <v>4.2386831275720164E-4</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>4.8600000000000003</v>
+        <v>5.63</v>
       </c>
       <c r="G38">
-        <v>2E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="H38">
-        <v>4.1152300000000001E-4</v>
+        <v>3.37478E-4</v>
       </c>
       <c r="I38">
-        <v>2.0600000000000002E-3</v>
+        <v>1.99E-3</v>
       </c>
       <c r="J38">
-        <v>0.96699999999999997</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>4.2386831275720164E-4</v>
+        <v>3.5346358792184726E-4</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>5.63</v>
+        <v>3.83</v>
       </c>
       <c r="G39">
-        <v>1.9E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="H39">
-        <v>3.37478E-4</v>
+        <v>4.1775500000000001E-4</v>
       </c>
       <c r="I39">
-        <v>1.99E-3</v>
+        <v>1.6299999999999999E-3</v>
       </c>
       <c r="J39">
-        <v>0.96899999999999997</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>3.5346358792184726E-4</v>
+        <v>4.2558746736292424E-4</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>3.83</v>
-      </c>
-      <c r="G40">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="H40">
-        <v>4.1775500000000001E-4</v>
-      </c>
-      <c r="I40">
-        <v>1.6299999999999999E-3</v>
-      </c>
-      <c r="J40">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="0"/>
-        <v>4.2558746736292424E-4</v>
+        <v>4.08</v>
+      </c>
+      <c r="G40" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>4.08</v>
-      </c>
-      <c r="G41" t="s">
-        <v>65</v>
-      </c>
-      <c r="H41" t="s">
-        <v>65</v>
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>1E-4</v>
+      </c>
+      <c r="H41">
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="I41" t="s">
         <v>65</v>
@@ -2145,28 +2141,28 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>5.42</v>
       </c>
       <c r="G42">
-        <v>1E-4</v>
-      </c>
-      <c r="H42">
-        <v>2.0000000000000002E-5</v>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="I42" t="s">
         <v>65</v>
@@ -2180,22 +2176,22 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>5.42</v>
+        <v>5.25</v>
       </c>
       <c r="G43">
         <v>2.0000000000000001E-4</v>
@@ -2203,133 +2199,134 @@
       <c r="H43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-      <c r="J43" t="s">
-        <v>65</v>
-      </c>
-      <c r="K43" t="s">
-        <v>65</v>
+      <c r="I43">
+        <v>1.8900000000000001E-4</v>
+      </c>
+      <c r="J43">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000001E-5</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>5.25</v>
+        <v>5.17</v>
       </c>
       <c r="G44">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>71</v>
+        <v>1.4E-3</v>
+      </c>
+      <c r="H44">
+        <v>2.7079300000000002E-4</v>
       </c>
       <c r="I44">
-        <v>1.8900000000000001E-4</v>
+        <v>1.3799999999999999E-3</v>
       </c>
       <c r="J44">
-        <v>0.69799999999999995</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>3.6000000000000001E-5</v>
+        <v>2.6692456479690519E-4</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>5.17</v>
+        <v>2.95</v>
       </c>
       <c r="G45">
-        <v>1.4E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="H45">
-        <v>2.7079300000000002E-4</v>
+        <v>2.7118599999999997E-4</v>
       </c>
       <c r="I45">
-        <v>1.3799999999999999E-3</v>
+        <v>7.8600000000000002E-4</v>
       </c>
       <c r="J45">
-        <v>0.99099999999999999</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>2.6692456479690519E-4</v>
+        <v>2.6644067796610167E-4</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
         <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>2.95</v>
+        <v>3.01</v>
       </c>
       <c r="G46">
-        <v>8.0000000000000004E-4</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H46">
-        <v>2.7118599999999997E-4</v>
+        <v>3.65449E-4</v>
       </c>
       <c r="I46">
-        <v>7.8600000000000002E-4</v>
+        <v>8.8599999999999996E-4</v>
       </c>
       <c r="J46">
-        <v>0.98899999999999999</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>2.6644067796610167E-4</v>
+        <v>2.9435215946843857E-4</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
         <v>81</v>
@@ -2338,121 +2335,120 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>3.01</v>
+        <v>4.83</v>
       </c>
       <c r="G47">
-        <v>1.1000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="H47">
-        <v>3.65449E-4</v>
+        <v>2.48447E-4</v>
       </c>
       <c r="I47">
-        <v>8.8599999999999996E-4</v>
+        <v>1.14E-3</v>
       </c>
       <c r="J47">
-        <v>0.72799999999999998</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>2.9435215946843857E-4</v>
+        <v>2.3602484472049688E-4</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>4.83</v>
+        <v>5.05</v>
       </c>
       <c r="G48">
-        <v>1.1999999999999999E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="H48">
-        <v>2.48447E-4</v>
+        <v>4.3564400000000001E-4</v>
       </c>
       <c r="I48">
-        <v>1.14E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="J48">
-        <v>0.90200000000000002</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>2.3602484472049688E-4</v>
+        <v>4.4356435643564356E-4</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
         <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>5.05</v>
+        <v>6.07</v>
       </c>
       <c r="G49">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="H49">
-        <v>4.3564400000000001E-4</v>
-      </c>
-      <c r="I49">
-        <v>2.2399999999999998E-3</v>
-      </c>
-      <c r="J49">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="0"/>
-        <v>4.4356435643564356E-4</v>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s">
+        <v>65</v>
+      </c>
+      <c r="J49" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>6.07</v>
+        <v>5.25</v>
       </c>
       <c r="G50">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>72</v>
+        <v>1.9E-3</v>
+      </c>
+      <c r="H50">
+        <v>3.6190499999999998E-4</v>
       </c>
       <c r="I50" t="s">
         <v>65</v>
@@ -2466,447 +2462,448 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
         <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>5.25</v>
+        <v>5.77</v>
       </c>
       <c r="G51">
-        <v>1.9E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="H51">
-        <v>3.6190499999999998E-4</v>
-      </c>
-      <c r="I51" t="s">
-        <v>65</v>
-      </c>
-      <c r="J51" t="s">
-        <v>65</v>
-      </c>
-      <c r="K51" t="s">
-        <v>65</v>
+        <v>2.5996500000000002E-4</v>
+      </c>
+      <c r="I51">
+        <v>1.41E-3</v>
+      </c>
+      <c r="J51">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>2.4436741767764301E-4</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
         <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>5.77</v>
+        <v>4.45</v>
       </c>
       <c r="G52">
-        <v>1.5E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="H52">
-        <v>2.5996500000000002E-4</v>
+        <v>4.0449399999999998E-4</v>
       </c>
       <c r="I52">
-        <v>1.41E-3</v>
+        <v>1.75E-3</v>
       </c>
       <c r="J52">
-        <v>0.97199999999999998</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>2.4436741767764301E-4</v>
+        <v>3.9325842696629214E-4</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>4.45</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="G53">
-        <v>1.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="H53">
-        <v>4.0449399999999998E-4</v>
+        <v>3.3864499999999999E-4</v>
       </c>
       <c r="I53">
-        <v>1.75E-3</v>
+        <v>1.6800000000000001E-3</v>
       </c>
       <c r="J53">
-        <v>0.98499999999999999</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>3.9325842696629214E-4</v>
+        <v>3.3466135458167336E-4</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
         <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>5.0199999999999996</v>
+        <v>4.78</v>
       </c>
       <c r="G54">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="H54">
-        <v>3.3864499999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="I54">
-        <v>1.6800000000000001E-3</v>
+        <v>3.9599999999999998E-4</v>
       </c>
       <c r="J54">
-        <v>0.96199999999999997</v>
+        <v>0.876</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>3.3466135458167336E-4</v>
+        <v>8.2845188284518819E-5</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>4.78</v>
+        <v>5.89</v>
       </c>
       <c r="G55">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>73</v>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="H55">
+        <v>2.7164700000000002E-4</v>
       </c>
       <c r="I55">
-        <v>3.9599999999999998E-4</v>
+        <v>1.4599999999999999E-3</v>
       </c>
       <c r="J55">
-        <v>0.876</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>8.2845188284518819E-5</v>
+        <v>2.4787775891341255E-4</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
         <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>5.89</v>
+        <v>5.07</v>
       </c>
       <c r="G56">
-        <v>1.6000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="H56">
-        <v>2.7164700000000002E-4</v>
+        <v>4.9309699999999996E-4</v>
       </c>
       <c r="I56">
-        <v>1.4599999999999999E-3</v>
+        <v>2.4299999999999999E-3</v>
       </c>
       <c r="J56">
-        <v>0.96099999999999997</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>2.4787775891341255E-4</v>
+        <v>4.7928994082840231E-4</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <v>5.07</v>
+        <v>5.44</v>
       </c>
       <c r="G57">
-        <v>2.5000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="H57">
-        <v>4.9309699999999996E-4</v>
+        <v>2.3897100000000001E-4</v>
       </c>
       <c r="I57">
-        <v>2.4299999999999999E-3</v>
+        <v>1.17E-3</v>
       </c>
       <c r="J57">
-        <v>0.89800000000000002</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>4.7928994082840231E-4</v>
+        <v>2.150735294117647E-4</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E58">
         <v>2</v>
       </c>
       <c r="F58">
-        <v>5.44</v>
+        <v>3.89</v>
       </c>
       <c r="G58">
-        <v>1.2999999999999999E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H58">
-        <v>2.3897100000000001E-4</v>
+        <v>1.2853499999999999E-4</v>
       </c>
       <c r="I58">
-        <v>1.17E-3</v>
+        <v>5.0799999999999999E-4</v>
       </c>
       <c r="J58">
-        <v>0.81899999999999995</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>2.150735294117647E-4</v>
+        <v>1.3059125964010282E-4</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
         <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
       <c r="F59">
-        <v>3.89</v>
+        <v>5.51</v>
       </c>
       <c r="G59">
-        <v>5.0000000000000001E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="H59">
-        <v>1.2853499999999999E-4</v>
+        <v>1.2704200000000001E-4</v>
       </c>
       <c r="I59">
-        <v>5.0799999999999999E-4</v>
+        <v>7.2400000000000003E-4</v>
       </c>
       <c r="J59">
-        <v>0.97099999999999997</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>1.3059125964010282E-4</v>
+        <v>1.3139745916515428E-4</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
       <c r="F60">
-        <v>5.51</v>
+        <v>3.01</v>
       </c>
       <c r="G60">
-        <v>6.9999999999999999E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="H60">
-        <v>1.2704200000000001E-4</v>
+        <v>2.6578099999999998E-4</v>
       </c>
       <c r="I60">
-        <v>7.2400000000000003E-4</v>
+        <v>8.6899999999999998E-4</v>
       </c>
       <c r="J60">
-        <v>0.95299999999999996</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>1.3139745916515428E-4</v>
+        <v>2.887043189368771E-4</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E61">
         <v>2</v>
       </c>
       <c r="F61">
-        <v>3.01</v>
+        <v>5.34</v>
       </c>
       <c r="G61">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="H61">
-        <v>2.6578099999999998E-4</v>
+        <v>1.3108600000000001E-4</v>
       </c>
       <c r="I61">
-        <v>8.6899999999999998E-4</v>
+        <v>8.6200000000000003E-4</v>
       </c>
       <c r="J61">
-        <v>0.84099999999999997</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>2.887043189368771E-4</v>
+        <v>1.6142322097378279E-4</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C62" t="s">
         <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
       <c r="F62">
-        <v>5.34</v>
+        <v>3.99</v>
       </c>
       <c r="G62">
-        <v>6.9999999999999999E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="H62">
-        <v>1.3108600000000001E-4</v>
+        <v>3.7594000000000001E-4</v>
       </c>
       <c r="I62">
-        <v>8.6200000000000003E-4</v>
+        <v>1.39E-3</v>
       </c>
       <c r="J62">
-        <v>0.96899999999999997</v>
+        <v>0.876</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>1.6142322097378279E-4</v>
+        <v>3.4837092731829569E-4</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -2915,426 +2912,426 @@
         <v>3.99</v>
       </c>
       <c r="G63">
-        <v>1.5E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="H63">
-        <v>3.7594000000000001E-4</v>
+        <v>1.75439E-4</v>
       </c>
       <c r="I63">
-        <v>1.39E-3</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="J63">
-        <v>0.876</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>3.4837092731829569E-4</v>
+        <v>1.8546365914786966E-4</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
       <c r="F64">
-        <v>3.99</v>
+        <v>3.98</v>
       </c>
       <c r="G64">
-        <v>6.9999999999999999E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="H64">
-        <v>1.75439E-4</v>
+        <v>2.5125599999999999E-4</v>
       </c>
       <c r="I64">
-        <v>7.3999999999999999E-4</v>
+        <v>1.01E-3</v>
       </c>
       <c r="J64">
-        <v>0.99199999999999999</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>1.8546365914786966E-4</v>
+        <v>2.5376884422110554E-4</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65">
-        <v>3.98</v>
+        <v>3.66</v>
       </c>
       <c r="G65">
-        <v>1E-3</v>
-      </c>
-      <c r="H65">
-        <v>2.5125599999999999E-4</v>
+        <v>1E-4</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="I65">
-        <v>1.01E-3</v>
+        <v>5.3200000000000003E-4</v>
       </c>
       <c r="J65">
-        <v>0.97799999999999998</v>
+        <v>0.96</v>
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>2.5376884422110554E-4</v>
+        <v>1.4535519125683061E-4</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
         <v>34</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E66">
         <v>2</v>
       </c>
       <c r="F66">
-        <v>3.66</v>
+        <v>5.36</v>
       </c>
       <c r="G66">
-        <v>1E-4</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>74</v>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="H66">
+        <v>1.3059700000000001E-4</v>
       </c>
       <c r="I66">
-        <v>5.3200000000000003E-4</v>
+        <v>9.1200000000000005E-4</v>
       </c>
       <c r="J66">
-        <v>0.96</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="K66">
-        <f t="shared" si="0"/>
-        <v>1.4535519125683061E-4</v>
+        <f t="shared" ref="K66:K84" si="1">I66/F66</f>
+        <v>1.7014925373134328E-4</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E67">
         <v>2</v>
       </c>
       <c r="F67">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="G67">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="H67">
-        <v>1.3059700000000001E-4</v>
+        <v>1.30841E-4</v>
       </c>
       <c r="I67">
-        <v>9.1200000000000005E-4</v>
+        <v>6.6100000000000002E-4</v>
       </c>
       <c r="J67">
-        <v>0.98299999999999998</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K85" si="1">I67/F67</f>
-        <v>1.7014925373134328E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.2355140186915889E-4</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
         <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="F68">
-        <v>5.35</v>
+        <v>6.01</v>
       </c>
       <c r="G68">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="H68">
-        <v>1.30841E-4</v>
-      </c>
-      <c r="I68">
-        <v>6.6100000000000002E-4</v>
-      </c>
-      <c r="J68">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="1"/>
-        <v>1.2355140186915889E-4</v>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I68" t="s">
+        <v>65</v>
+      </c>
+      <c r="J68" t="s">
+        <v>65</v>
+      </c>
+      <c r="K68" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
         <v>33</v>
       </c>
       <c r="D69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69">
-        <v>6.01</v>
+        <v>5.22</v>
       </c>
       <c r="G69">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I69" t="s">
-        <v>65</v>
-      </c>
-      <c r="J69" t="s">
-        <v>65</v>
-      </c>
-      <c r="K69" t="s">
-        <v>65</v>
+        <v>1E-3</v>
+      </c>
+      <c r="H69">
+        <v>1.91571E-4</v>
+      </c>
+      <c r="I69">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="J69">
+        <v>0.92</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="1"/>
+        <v>2.4521072796934869E-4</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
       <c r="F70">
-        <v>5.22</v>
+        <v>4.7</v>
       </c>
       <c r="G70">
-        <v>1E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="H70">
-        <v>1.91571E-4</v>
+        <v>1.2766000000000001E-4</v>
       </c>
       <c r="I70">
-        <v>1.2800000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J70">
-        <v>0.92</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="K70">
         <f t="shared" si="1"/>
-        <v>2.4521072796934869E-4</v>
+        <v>2.7659574468085103E-4</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E71">
         <v>2</v>
       </c>
       <c r="F71">
-        <v>4.7</v>
+        <v>5.47</v>
       </c>
       <c r="G71">
-        <v>5.9999999999999995E-4</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H71">
-        <v>1.2766000000000001E-4</v>
+        <v>2.0109699999999999E-4</v>
       </c>
       <c r="I71">
-        <v>1.2999999999999999E-3</v>
+        <v>1.07E-3</v>
       </c>
       <c r="J71">
-        <v>0.86899999999999999</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="K71">
         <f t="shared" si="1"/>
-        <v>2.7659574468085103E-4</v>
+        <v>1.9561243144424132E-4</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
       <c r="F72">
-        <v>5.47</v>
+        <v>3</v>
       </c>
       <c r="G72">
-        <v>1.1000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H72">
-        <v>2.0109699999999999E-4</v>
+        <v>3.33333E-4</v>
       </c>
       <c r="I72">
-        <v>1.07E-3</v>
+        <v>9.9799999999999997E-4</v>
       </c>
       <c r="J72">
-        <v>0.98499999999999999</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="K72">
         <f t="shared" si="1"/>
-        <v>1.9561243144424132E-4</v>
+        <v>3.3266666666666666E-4</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s">
         <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="G73">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="H73">
-        <v>3.33333E-4</v>
+        <v>2.37288E-4</v>
       </c>
       <c r="I73">
-        <v>9.9799999999999997E-4</v>
+        <v>5.8699999999999996E-4</v>
       </c>
       <c r="J73">
-        <v>0.99399999999999999</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="K73">
         <f t="shared" si="1"/>
-        <v>3.3266666666666666E-4</v>
+        <v>1.9898305084745761E-4</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
         <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E74">
         <v>2</v>
       </c>
       <c r="F74">
-        <v>2.95</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="G74">
-        <v>6.9999999999999999E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="H74">
-        <v>2.37288E-4</v>
+        <v>2.0790000000000001E-4</v>
       </c>
       <c r="I74">
-        <v>5.8699999999999996E-4</v>
+        <v>9.8700000000000003E-4</v>
       </c>
       <c r="J74">
-        <v>0.97199999999999998</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="K74">
         <f t="shared" si="1"/>
-        <v>1.9898305084745761E-4</v>
+        <v>2.0519750519750523E-4</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D75" t="s">
         <v>81</v>
@@ -3343,379 +3340,343 @@
         <v>2</v>
       </c>
       <c r="F75">
-        <v>4.8099999999999996</v>
+        <v>6.26</v>
       </c>
       <c r="G75">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>2.0790000000000001E-4</v>
-      </c>
-      <c r="I75">
-        <v>9.8700000000000003E-4</v>
-      </c>
-      <c r="J75">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="1"/>
-        <v>2.0519750519750523E-4</v>
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>65</v>
+      </c>
+      <c r="J75" t="s">
+        <v>65</v>
+      </c>
+      <c r="K75" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
         <v>32</v>
       </c>
       <c r="D76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E76">
         <v>2</v>
       </c>
       <c r="F76">
-        <v>6.26</v>
+        <v>5.67</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76" t="s">
-        <v>65</v>
-      </c>
-      <c r="J76" t="s">
-        <v>65</v>
-      </c>
-      <c r="K76" t="s">
-        <v>65</v>
+        <v>1.9400400000000001E-4</v>
+      </c>
+      <c r="I76">
+        <v>1.14E-3</v>
+      </c>
+      <c r="J76">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="1"/>
+        <v>2.0105820105820107E-4</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C77" t="s">
         <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E77">
         <v>2</v>
       </c>
       <c r="F77">
-        <v>5.67</v>
+        <v>5.6</v>
       </c>
       <c r="G77">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="H77">
-        <v>1.9400400000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="I77">
-        <v>1.14E-3</v>
+        <v>3.6099999999999999E-4</v>
       </c>
       <c r="J77">
-        <v>0.99399999999999999</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="K77">
         <f t="shared" si="1"/>
-        <v>2.0105820105820107E-4</v>
+        <v>6.4464285714285711E-5</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
         <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E78">
         <v>2</v>
       </c>
       <c r="F78">
-        <v>5.6</v>
+        <v>4.87</v>
       </c>
       <c r="G78">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>76</v>
+        <v>1.5E-3</v>
+      </c>
+      <c r="H78">
+        <v>3.0800800000000002E-4</v>
       </c>
       <c r="I78">
-        <v>3.6099999999999999E-4</v>
+        <v>1.17E-3</v>
       </c>
       <c r="J78">
-        <v>0.89500000000000002</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="K78">
         <f t="shared" si="1"/>
-        <v>6.4464285714285711E-5</v>
+        <v>2.4024640657084188E-4</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C79" t="s">
         <v>32</v>
       </c>
       <c r="D79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E79">
         <v>2</v>
       </c>
       <c r="F79">
-        <v>4.87</v>
+        <v>5.07</v>
       </c>
       <c r="G79">
-        <v>1.5E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H79">
-        <v>3.0800800000000002E-4</v>
+        <v>2.16963E-4</v>
       </c>
       <c r="I79">
-        <v>1.17E-3</v>
+        <v>1.6100000000000001E-3</v>
       </c>
       <c r="J79">
-        <v>0.89400000000000002</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="K79">
         <f t="shared" si="1"/>
-        <v>2.4024640657084188E-4</v>
+        <v>3.1755424063116371E-4</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C80" t="s">
         <v>32</v>
       </c>
       <c r="D80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
       <c r="F80">
-        <v>5.07</v>
+        <v>4.68</v>
       </c>
       <c r="G80">
-        <v>1.1000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H80">
-        <v>2.16963E-4</v>
+        <v>1.06838E-4</v>
       </c>
       <c r="I80">
-        <v>1.6100000000000001E-3</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="J80">
-        <v>0.92800000000000005</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="K80">
         <f t="shared" si="1"/>
-        <v>3.1755424063116371E-4</v>
+        <v>1.0897435897435899E-4</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B81" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
       </c>
       <c r="D81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E81">
         <v>2</v>
       </c>
       <c r="F81">
-        <v>4.68</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="G81">
-        <v>5.0000000000000001E-4</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="H81">
-        <v>1.06838E-4</v>
+        <v>5.1172700000000002E-4</v>
       </c>
       <c r="I81">
-        <v>5.1000000000000004E-4</v>
+        <v>2.3600000000000001E-3</v>
       </c>
       <c r="J81">
-        <v>0.84699999999999998</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="K81">
         <f t="shared" si="1"/>
-        <v>1.0897435897435899E-4</v>
+        <v>5.031982942430704E-4</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C82" t="s">
         <v>32</v>
       </c>
       <c r="D82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
       <c r="F82">
-        <v>4.6900000000000004</v>
+        <v>4.51</v>
       </c>
       <c r="G82">
-        <v>2.3999999999999998E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H82">
-        <v>5.1172700000000002E-4</v>
+        <v>2.2172899999999999E-4</v>
       </c>
       <c r="I82">
-        <v>2.3600000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="J82">
-        <v>0.93899999999999995</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="K82">
         <f t="shared" si="1"/>
-        <v>5.031982942430704E-4</v>
+        <v>3.7694013303769401E-4</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
         <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
       <c r="F83">
-        <v>4.51</v>
+        <v>5.4</v>
       </c>
       <c r="G83">
         <v>1E-3</v>
       </c>
       <c r="H83">
-        <v>2.2172899999999999E-4</v>
-      </c>
-      <c r="I83">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="J83">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="1"/>
-        <v>3.7694013303769401E-4</v>
+        <v>1.8518500000000001E-4</v>
+      </c>
+      <c r="I83" t="s">
+        <v>65</v>
+      </c>
+      <c r="J83" t="s">
+        <v>65</v>
+      </c>
+      <c r="K83" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s">
         <v>32</v>
       </c>
       <c r="D84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E84">
         <v>2</v>
       </c>
       <c r="F84">
-        <v>5.4</v>
+        <v>5.13</v>
       </c>
       <c r="G84">
-        <v>1E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="H84">
-        <v>1.8518500000000001E-4</v>
-      </c>
-      <c r="I84" t="s">
-        <v>65</v>
-      </c>
-      <c r="J84" t="s">
-        <v>65</v>
-      </c>
-      <c r="K84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" t="s">
-        <v>55</v>
-      </c>
-      <c r="C85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D85" t="s">
-        <v>82</v>
-      </c>
-      <c r="E85">
-        <v>2</v>
-      </c>
-      <c r="F85">
-        <v>5.13</v>
-      </c>
-      <c r="G85">
-        <v>1.4E-3</v>
-      </c>
-      <c r="H85">
         <v>2.7290399999999997E-4</v>
       </c>
-      <c r="I85">
+      <c r="I84">
         <v>1.89E-3</v>
       </c>
-      <c r="J85">
+      <c r="J84">
         <v>0.84299999999999997</v>
       </c>
-      <c r="K85">
+      <c r="K84">
         <f t="shared" si="1"/>
         <v>3.6842105263157896E-4</v>
       </c>
